--- a/templates/aged_receivables.xlsx
+++ b/templates/aged_receivables.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\owgs\CODES\luna\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luna\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550"/>
   </bookViews>
   <sheets>
-    <sheet name="format1" sheetId="1" r:id="rId1"/>
+    <sheet name="format_luna" sheetId="2" r:id="rId1"/>
+    <sheet name="format1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +88,33 @@
   </si>
   <si>
     <t>Avocado Juice</t>
+  </si>
+  <si>
+    <t>Input format</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>LEFTBINVALUE</t>
+  </si>
+  <si>
+    <t>RIGHTBINVALUE</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>CONVERSIONFACTOR</t>
+  </si>
+  <si>
+    <t>VALUEFCY</t>
+  </si>
+  <si>
+    <t>VALUELCY</t>
   </si>
 </sst>
 </file>
@@ -94,8 +122,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -216,7 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -240,7 +268,7 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,7 +278,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -266,6 +294,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -549,10 +587,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.7265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44926</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.3394999999999999</v>
+      </c>
+      <c r="F7" s="24">
+        <v>3</v>
+      </c>
+      <c r="G7" s="24">
+        <v>4.0184999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.3394999999999999</v>
+      </c>
+      <c r="F8" s="24">
+        <v>32</v>
+      </c>
+      <c r="G8" s="24">
+        <v>42.863999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
+        <v>32</v>
+      </c>
+      <c r="G9" s="25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
+        <v>21</v>
+      </c>
+      <c r="G10" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.3394999999999999</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1.3394999999999999</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10">
+        <v>60</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10">
+        <v>90</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <v>150</v>
+      </c>
+      <c r="C14" s="10">
+        <v>999999</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,9 +941,13 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -614,72 +957,52 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1.3394999999999999</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4</v>
-      </c>
-      <c r="E6" s="15">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -688,62 +1011,62 @@
         <v>1.3394999999999999</v>
       </c>
       <c r="D7" s="15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.3394999999999999</v>
+      </c>
+      <c r="D8" s="15">
         <v>32</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>32</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>33</v>
-      </c>
-      <c r="E8" s="11">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>11</v>
@@ -752,24 +1075,56 @@
         <v>1</v>
       </c>
       <c r="D9" s="15">
+        <v>33</v>
+      </c>
+      <c r="E9" s="11">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
         <v>22.4</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>21</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>0.4</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>1</v>
       </c>
     </row>
